--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t xml:space="preserve">Name1</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IO.6</t>
   </si>
   <si>
     <t xml:space="preserve">IO</t>
@@ -412,17 +430,17 @@
   </sheetPr>
   <dimension ref="B1:T4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="35.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="35.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -443,106 +461,106 @@
         <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
